--- a/biology/Médecine/Faisceau_postérieur_du_plexus_brachial/Faisceau_postérieur_du_plexus_brachial.xlsx
+++ b/biology/Médecine/Faisceau_postérieur_du_plexus_brachial/Faisceau_postérieur_du_plexus_brachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faisceau_post%C3%A9rieur_du_plexus_brachial</t>
+          <t>Faisceau_postérieur_du_plexus_brachial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisceau postérieur du plexus brachial (ou tronc secondaire postérieur du plexus brachial ou tronc radio-circonflexe) est le tronc nerveux du plexus brachial formé par les divisions postérieures des trois troncs supérieur, moyen et inférieur du plexus brachial. Il se compose des contributions de toutes les racines du plexus brachial.
 Il donne naissance aux nerfs suivants :
